--- a/SAPS_2016_Glossary.xlsx
+++ b/SAPS_2016_Glossary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Census 2016\2016 Website\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davy Sheehy\Desktop\ABDAFinalAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2349DAA-11A0-4DE6-91C0-454BEF593912}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76978A1B-E57A-4CBC-BE01-A66FF62E7141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table field descriptions" sheetId="1" r:id="rId1"/>
@@ -4915,7 +4915,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4952,13 +4952,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4970,18 +5006,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5321,22 +5366,22 @@
   <dimension ref="A1:F800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D644" sqref="D644"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="103.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="79.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.84375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="103.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.15234375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>1590</v>
       </c>
@@ -5356,7 +5401,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1592</v>
       </c>
@@ -5370,7 +5415,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>1614</v>
       </c>
@@ -5381,7 +5426,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5389,7 +5434,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5397,7 +5442,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -5405,7 +5450,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5413,7 +5458,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5421,7 +5466,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
@@ -5429,7 +5474,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
@@ -5437,7 +5482,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
@@ -5445,7 +5490,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
@@ -5453,7 +5498,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
@@ -5461,7 +5506,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
@@ -5469,7 +5514,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
@@ -5477,7 +5522,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
@@ -5485,7 +5530,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
@@ -5493,7 +5538,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
@@ -5501,7 +5546,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
@@ -5509,7 +5554,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
@@ -5517,7 +5562,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
@@ -5525,7 +5570,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
@@ -5533,7 +5578,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
@@ -5541,7 +5586,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
@@ -5549,7 +5594,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
@@ -5557,7 +5602,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
@@ -5565,7 +5610,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
@@ -5573,7 +5618,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C28" s="2" t="s">
         <v>26</v>
       </c>
@@ -5581,7 +5626,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
@@ -5589,7 +5634,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
@@ -5597,7 +5642,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
@@ -5605,7 +5650,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
@@ -5613,7 +5658,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
@@ -5621,7 +5666,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
@@ -5629,7 +5674,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
@@ -5637,7 +5682,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C36" s="2" t="s">
         <v>34</v>
       </c>
@@ -5645,7 +5690,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
@@ -5653,7 +5698,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -5661,7 +5706,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C39" s="2" t="s">
         <v>37</v>
       </c>
@@ -5669,7 +5714,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C40" s="2" t="s">
         <v>38</v>
       </c>
@@ -5677,7 +5722,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
@@ -5685,7 +5730,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
@@ -5693,7 +5738,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
@@ -5701,7 +5746,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
@@ -5709,7 +5754,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
@@ -5717,7 +5762,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
@@ -5725,7 +5770,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C47" s="2" t="s">
         <v>45</v>
       </c>
@@ -5733,7 +5778,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C48" s="2" t="s">
         <v>46</v>
       </c>
@@ -5741,7 +5786,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C49" s="2" t="s">
         <v>47</v>
       </c>
@@ -5749,7 +5794,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C50" s="2" t="s">
         <v>48</v>
       </c>
@@ -5757,7 +5802,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
@@ -5765,7 +5810,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C52" s="2" t="s">
         <v>50</v>
       </c>
@@ -5773,7 +5818,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C53" s="2" t="s">
         <v>51</v>
       </c>
@@ -5781,7 +5826,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C54" s="2" t="s">
         <v>52</v>
       </c>
@@ -5789,7 +5834,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C55" s="2" t="s">
         <v>53</v>
       </c>
@@ -5797,7 +5842,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C56" s="2" t="s">
         <v>54</v>
       </c>
@@ -5805,7 +5850,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C57" s="2" t="s">
         <v>55</v>
       </c>
@@ -5813,7 +5858,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C58" s="2" t="s">
         <v>56</v>
       </c>
@@ -5821,7 +5866,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C59" s="2" t="s">
         <v>57</v>
       </c>
@@ -5829,7 +5874,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C60" s="2" t="s">
         <v>58</v>
       </c>
@@ -5837,7 +5882,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C61" s="2" t="s">
         <v>59</v>
       </c>
@@ -5845,7 +5890,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C62" s="2" t="s">
         <v>60</v>
       </c>
@@ -5853,7 +5898,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C63" s="2" t="s">
         <v>61</v>
       </c>
@@ -5861,7 +5906,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C64" s="2" t="s">
         <v>62</v>
       </c>
@@ -5869,7 +5914,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C65" s="2" t="s">
         <v>63</v>
       </c>
@@ -5877,7 +5922,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C66" s="2" t="s">
         <v>64</v>
       </c>
@@ -5885,7 +5930,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C67" s="2" t="s">
         <v>65</v>
       </c>
@@ -5893,7 +5938,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C68" s="2" t="s">
         <v>66</v>
       </c>
@@ -5901,7 +5946,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C69" s="2" t="s">
         <v>67</v>
       </c>
@@ -5909,7 +5954,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C70" s="2" t="s">
         <v>68</v>
       </c>
@@ -5917,7 +5962,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C71" s="2" t="s">
         <v>69</v>
       </c>
@@ -5925,7 +5970,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C72" s="2" t="s">
         <v>70</v>
       </c>
@@ -5933,7 +5978,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C73" s="2" t="s">
         <v>71</v>
       </c>
@@ -5941,7 +5986,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C74" s="2" t="s">
         <v>72</v>
       </c>
@@ -5949,7 +5994,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C75" s="2" t="s">
         <v>73</v>
       </c>
@@ -5957,7 +6002,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C76" s="2" t="s">
         <v>74</v>
       </c>
@@ -5965,7 +6010,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C77" s="2" t="s">
         <v>75</v>
       </c>
@@ -5973,7 +6018,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C78" s="2" t="s">
         <v>76</v>
       </c>
@@ -5981,7 +6026,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C79" s="2" t="s">
         <v>77</v>
       </c>
@@ -5989,7 +6034,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C80" s="2" t="s">
         <v>78</v>
       </c>
@@ -5997,7 +6042,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C81" s="2" t="s">
         <v>79</v>
       </c>
@@ -6005,7 +6050,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C82" s="2" t="s">
         <v>80</v>
       </c>
@@ -6013,7 +6058,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C83" s="2" t="s">
         <v>81</v>
       </c>
@@ -6021,7 +6066,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C84" s="2" t="s">
         <v>82</v>
       </c>
@@ -6029,7 +6074,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C85" s="2" t="s">
         <v>83</v>
       </c>
@@ -6037,7 +6082,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C86" s="2" t="s">
         <v>84</v>
       </c>
@@ -6045,7 +6090,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C87" s="2" t="s">
         <v>85</v>
       </c>
@@ -6053,7 +6098,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C88" s="2" t="s">
         <v>86</v>
       </c>
@@ -6061,7 +6106,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C89" s="2" t="s">
         <v>87</v>
       </c>
@@ -6069,7 +6114,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C90" s="2" t="s">
         <v>88</v>
       </c>
@@ -6077,7 +6122,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C91" s="2" t="s">
         <v>89</v>
       </c>
@@ -6085,7 +6130,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C92" s="2" t="s">
         <v>90</v>
       </c>
@@ -6093,7 +6138,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C93" s="2" t="s">
         <v>91</v>
       </c>
@@ -6101,7 +6146,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C94" s="2" t="s">
         <v>92</v>
       </c>
@@ -6109,7 +6154,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C95" s="2" t="s">
         <v>93</v>
       </c>
@@ -6117,7 +6162,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C96" s="2" t="s">
         <v>94</v>
       </c>
@@ -6125,7 +6170,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6133,7 +6178,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C98" s="2" t="s">
         <v>96</v>
       </c>
@@ -6141,7 +6186,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C99" s="2" t="s">
         <v>97</v>
       </c>
@@ -6149,7 +6194,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C100" s="2" t="s">
         <v>98</v>
       </c>
@@ -6157,7 +6202,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C101" s="2" t="s">
         <v>99</v>
       </c>
@@ -6165,7 +6210,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C102" s="2" t="s">
         <v>100</v>
       </c>
@@ -6173,7 +6218,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C103" s="2" t="s">
         <v>101</v>
       </c>
@@ -6181,7 +6226,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C104" s="2" t="s">
         <v>102</v>
       </c>
@@ -6189,7 +6234,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C105" s="2" t="s">
         <v>103</v>
       </c>
@@ -6197,7 +6242,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C106" s="2" t="s">
         <v>104</v>
       </c>
@@ -6205,7 +6250,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>1592</v>
       </c>
@@ -6222,7 +6267,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B108" s="2" t="s">
         <v>673</v>
       </c>
@@ -6233,7 +6278,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C109" s="2" t="s">
         <v>107</v>
       </c>
@@ -6241,7 +6286,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C110" s="2" t="s">
         <v>108</v>
       </c>
@@ -6249,7 +6294,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C111" s="2" t="s">
         <v>109</v>
       </c>
@@ -6257,7 +6302,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C112" s="2" t="s">
         <v>110</v>
       </c>
@@ -6265,7 +6310,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C113" s="2" t="s">
         <v>111</v>
       </c>
@@ -6273,7 +6318,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C114" s="2" t="s">
         <v>112</v>
       </c>
@@ -6281,7 +6326,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C115" s="2" t="s">
         <v>113</v>
       </c>
@@ -6289,7 +6334,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C116" s="2" t="s">
         <v>114</v>
       </c>
@@ -6297,7 +6342,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C117" s="2" t="s">
         <v>115</v>
       </c>
@@ -6305,7 +6350,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C118" s="2" t="s">
         <v>116</v>
       </c>
@@ -6313,7 +6358,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C119" s="2" t="s">
         <v>117</v>
       </c>
@@ -6321,7 +6366,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C120" s="2" t="s">
         <v>118</v>
       </c>
@@ -6329,7 +6374,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C121" s="2" t="s">
         <v>119</v>
       </c>
@@ -6337,7 +6382,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C122" s="2" t="s">
         <v>120</v>
       </c>
@@ -6345,7 +6390,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C123" s="2" t="s">
         <v>121</v>
       </c>
@@ -6353,7 +6398,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C124" s="2" t="s">
         <v>123</v>
       </c>
@@ -6361,7 +6406,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
         <v>1607</v>
       </c>
@@ -6378,7 +6423,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B126" s="2" t="s">
         <v>681</v>
       </c>
@@ -6389,7 +6434,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C127" s="2" t="s">
         <v>126</v>
       </c>
@@ -6397,7 +6442,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C128" s="2" t="s">
         <v>127</v>
       </c>
@@ -6405,7 +6450,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C129" s="2" t="s">
         <v>128</v>
       </c>
@@ -6413,7 +6458,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C130" s="2" t="s">
         <v>129</v>
       </c>
@@ -6421,7 +6466,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C131" s="2" t="s">
         <v>130</v>
       </c>
@@ -6429,7 +6474,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C132" s="2" t="s">
         <v>131</v>
       </c>
@@ -6437,7 +6482,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C133" s="2" t="s">
         <v>132</v>
       </c>
@@ -6445,7 +6490,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C134" s="2" t="s">
         <v>133</v>
       </c>
@@ -6453,7 +6498,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C135" s="2" t="s">
         <v>134</v>
       </c>
@@ -6461,7 +6506,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C136" s="2" t="s">
         <v>135</v>
       </c>
@@ -6469,7 +6514,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C137" s="2" t="s">
         <v>136</v>
       </c>
@@ -6477,7 +6522,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C138" s="2" t="s">
         <v>137</v>
       </c>
@@ -6485,7 +6530,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C139" s="2" t="s">
         <v>138</v>
       </c>
@@ -6493,7 +6538,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
         <v>1607</v>
       </c>
@@ -6507,7 +6552,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B141" s="2" t="s">
         <v>682</v>
       </c>
@@ -6518,7 +6563,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C142" s="2" t="s">
         <v>144</v>
       </c>
@@ -6526,7 +6571,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C143" s="2" t="s">
         <v>146</v>
       </c>
@@ -6534,7 +6579,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C144" s="2" t="s">
         <v>148</v>
       </c>
@@ -6542,7 +6587,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C145" s="2" t="s">
         <v>150</v>
       </c>
@@ -6550,7 +6595,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C146" s="2" t="s">
         <v>151</v>
       </c>
@@ -6558,7 +6603,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C147" s="2" t="s">
         <v>153</v>
       </c>
@@ -6566,7 +6611,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="3" t="s">
         <v>1607</v>
       </c>
@@ -6580,7 +6625,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B149" s="2" t="s">
         <v>1615</v>
       </c>
@@ -6591,7 +6636,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C150" s="2" t="s">
         <v>157</v>
       </c>
@@ -6599,7 +6644,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C151" s="2" t="s">
         <v>159</v>
       </c>
@@ -6607,7 +6652,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C152" s="2" t="s">
         <v>160</v>
       </c>
@@ -6615,7 +6660,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="3" t="s">
         <v>1607</v>
       </c>
@@ -6629,7 +6674,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B154" s="2" t="s">
         <v>683</v>
       </c>
@@ -6640,7 +6685,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C155" s="2" t="s">
         <v>164</v>
       </c>
@@ -6648,7 +6693,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C156" s="2" t="s">
         <v>165</v>
       </c>
@@ -6656,7 +6701,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C157" s="2" t="s">
         <v>166</v>
       </c>
@@ -6664,7 +6709,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="3" t="s">
         <v>1607</v>
       </c>
@@ -6678,7 +6723,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B159" s="2" t="s">
         <v>684</v>
       </c>
@@ -6689,7 +6734,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C160" s="2" t="s">
         <v>173</v>
       </c>
@@ -6697,7 +6742,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C161" s="2" t="s">
         <v>174</v>
       </c>
@@ -6705,7 +6750,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C162" s="2" t="s">
         <v>167</v>
       </c>
@@ -6713,7 +6758,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="3" t="s">
         <v>1607</v>
       </c>
@@ -6727,7 +6772,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B164" s="2" t="s">
         <v>685</v>
       </c>
@@ -6738,7 +6783,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C165" s="2" t="s">
         <v>179</v>
       </c>
@@ -6746,7 +6791,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C166" s="2" t="s">
         <v>180</v>
       </c>
@@ -6754,7 +6799,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C167" s="2" t="s">
         <v>181</v>
       </c>
@@ -6762,7 +6807,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C168" s="2" t="s">
         <v>175</v>
       </c>
@@ -6770,7 +6815,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>1593</v>
       </c>
@@ -6784,7 +6829,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B170" s="2" t="s">
         <v>1616</v>
       </c>
@@ -6795,7 +6840,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C171" s="2" t="s">
         <v>184</v>
       </c>
@@ -6803,7 +6848,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C172" s="2" t="s">
         <v>185</v>
       </c>
@@ -6811,7 +6856,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>1593</v>
       </c>
@@ -6831,7 +6876,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B174" s="2" t="s">
         <v>1617</v>
       </c>
@@ -6845,7 +6890,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C175" s="2" t="s">
         <v>746</v>
       </c>
@@ -6856,7 +6901,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C176" s="2" t="s">
         <v>747</v>
       </c>
@@ -6867,7 +6912,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C177" s="2" t="s">
         <v>748</v>
       </c>
@@ -6878,7 +6923,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C178" s="2" t="s">
         <v>749</v>
       </c>
@@ -6889,7 +6934,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C179" s="2" t="s">
         <v>750</v>
       </c>
@@ -6900,7 +6945,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C180" s="2" t="s">
         <v>751</v>
       </c>
@@ -6911,7 +6956,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C181" s="2" t="s">
         <v>752</v>
       </c>
@@ -6922,7 +6967,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C182" s="2" t="s">
         <v>753</v>
       </c>
@@ -6933,7 +6978,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C183" s="2" t="s">
         <v>754</v>
       </c>
@@ -6944,7 +6989,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C184" s="2" t="s">
         <v>755</v>
       </c>
@@ -6955,7 +7000,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C185" s="2" t="s">
         <v>756</v>
       </c>
@@ -6966,7 +7011,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C186" s="2" t="s">
         <v>757</v>
       </c>
@@ -6977,7 +7022,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C187" s="2" t="s">
         <v>758</v>
       </c>
@@ -6988,7 +7033,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C188" s="2" t="s">
         <v>759</v>
       </c>
@@ -6999,7 +7044,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C189" s="2" t="s">
         <v>760</v>
       </c>
@@ -7010,7 +7055,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C190" s="2" t="s">
         <v>761</v>
       </c>
@@ -7021,7 +7066,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C191" s="2" t="s">
         <v>762</v>
       </c>
@@ -7032,7 +7077,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C192" s="2" t="s">
         <v>763</v>
       </c>
@@ -7043,7 +7088,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C193" s="2" t="s">
         <v>764</v>
       </c>
@@ -7054,7 +7099,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C194" s="2" t="s">
         <v>765</v>
       </c>
@@ -7065,7 +7110,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C195" s="2" t="s">
         <v>766</v>
       </c>
@@ -7076,7 +7121,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C196" s="2" t="s">
         <v>767</v>
       </c>
@@ -7087,7 +7132,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C197" s="2" t="s">
         <v>768</v>
       </c>
@@ -7098,7 +7143,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C198" s="2" t="s">
         <v>769</v>
       </c>
@@ -7109,7 +7154,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C199" s="2" t="s">
         <v>770</v>
       </c>
@@ -7120,7 +7165,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C200" s="2" t="s">
         <v>771</v>
       </c>
@@ -7131,7 +7176,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C201" s="2" t="s">
         <v>772</v>
       </c>
@@ -7142,7 +7187,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C202" s="2" t="s">
         <v>773</v>
       </c>
@@ -7153,7 +7198,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C203" s="2" t="s">
         <v>774</v>
       </c>
@@ -7164,7 +7209,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C204" s="2" t="s">
         <v>775</v>
       </c>
@@ -7175,7 +7220,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C205" s="2" t="s">
         <v>776</v>
       </c>
@@ -7186,7 +7231,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>1594</v>
       </c>
@@ -7200,7 +7245,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B207" s="2" t="s">
         <v>686</v>
       </c>
@@ -7211,7 +7256,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C208" s="2" t="s">
         <v>188</v>
       </c>
@@ -7219,7 +7264,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C209" s="2" t="s">
         <v>189</v>
       </c>
@@ -7227,7 +7272,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C210" s="2" t="s">
         <v>190</v>
       </c>
@@ -7235,7 +7280,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C211" s="2" t="s">
         <v>191</v>
       </c>
@@ -7243,7 +7288,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C212" s="2" t="s">
         <v>192</v>
       </c>
@@ -7251,7 +7296,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C213" s="2" t="s">
         <v>193</v>
       </c>
@@ -7259,7 +7304,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C214" s="2" t="s">
         <v>194</v>
       </c>
@@ -7267,7 +7312,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C215" s="2" t="s">
         <v>195</v>
       </c>
@@ -7275,7 +7320,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C216" s="2" t="s">
         <v>196</v>
       </c>
@@ -7283,7 +7328,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C217" s="2" t="s">
         <v>197</v>
       </c>
@@ -7291,7 +7336,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C218" s="2" t="s">
         <v>198</v>
       </c>
@@ -7299,7 +7344,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C219" s="2" t="s">
         <v>199</v>
       </c>
@@ -7307,7 +7352,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C220" s="2" t="s">
         <v>200</v>
       </c>
@@ -7315,7 +7360,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C221" s="2" t="s">
         <v>201</v>
       </c>
@@ -7323,7 +7368,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C222" s="2" t="s">
         <v>202</v>
       </c>
@@ -7331,7 +7376,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C223" s="2" t="s">
         <v>203</v>
       </c>
@@ -7339,7 +7384,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>1594</v>
       </c>
@@ -7353,7 +7398,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B225" s="2" t="s">
         <v>687</v>
       </c>
@@ -7364,7 +7409,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C226" s="2" t="s">
         <v>206</v>
       </c>
@@ -7372,7 +7417,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C227" s="2" t="s">
         <v>207</v>
       </c>
@@ -7380,7 +7425,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C228" s="2" t="s">
         <v>777</v>
       </c>
@@ -7391,7 +7436,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C229" s="2" t="s">
         <v>778</v>
       </c>
@@ -7402,7 +7447,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C230" s="2" t="s">
         <v>208</v>
       </c>
@@ -7411,7 +7456,7 @@
       </c>
       <c r="E230"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C231" s="2" t="s">
         <v>209</v>
       </c>
@@ -7420,7 +7465,7 @@
       </c>
       <c r="E231"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C232" s="2" t="s">
         <v>210</v>
       </c>
@@ -7429,7 +7474,7 @@
       </c>
       <c r="E232"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C233" s="2" t="s">
         <v>211</v>
       </c>
@@ -7438,7 +7483,7 @@
       </c>
       <c r="E233"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C234" s="2" t="s">
         <v>779</v>
       </c>
@@ -7449,7 +7494,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C235" s="2" t="s">
         <v>780</v>
       </c>
@@ -7460,7 +7505,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C236" s="2" t="s">
         <v>212</v>
       </c>
@@ -7469,7 +7514,7 @@
       </c>
       <c r="E236"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C237" s="2" t="s">
         <v>213</v>
       </c>
@@ -7478,7 +7523,7 @@
       </c>
       <c r="E237"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C238" s="2" t="s">
         <v>214</v>
       </c>
@@ -7487,7 +7532,7 @@
       </c>
       <c r="E238"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C239" s="2" t="s">
         <v>781</v>
       </c>
@@ -7498,7 +7543,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C240" s="2" t="s">
         <v>782</v>
       </c>
@@ -7509,7 +7554,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C241" s="2" t="s">
         <v>216</v>
       </c>
@@ -7518,7 +7563,7 @@
       </c>
       <c r="E241"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C242" s="2" t="s">
         <v>218</v>
       </c>
@@ -7527,7 +7572,7 @@
       </c>
       <c r="E242"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C243" s="2" t="s">
         <v>220</v>
       </c>
@@ -7536,7 +7581,7 @@
       </c>
       <c r="E243"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C244" s="2" t="s">
         <v>222</v>
       </c>
@@ -7545,7 +7590,7 @@
       </c>
       <c r="E244"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C245" s="2" t="s">
         <v>224</v>
       </c>
@@ -7554,7 +7599,7 @@
       </c>
       <c r="E245"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C246" s="2" t="s">
         <v>783</v>
       </c>
@@ -7565,7 +7610,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C247" s="2" t="s">
         <v>784</v>
       </c>
@@ -7576,7 +7621,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
         <v>1594</v>
       </c>
@@ -7596,7 +7641,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B249" s="2" t="s">
         <v>688</v>
       </c>
@@ -7610,7 +7655,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C250" s="2" t="s">
         <v>787</v>
       </c>
@@ -7621,7 +7666,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C251" s="2" t="s">
         <v>788</v>
       </c>
@@ -7632,7 +7677,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C252" s="2" t="s">
         <v>789</v>
       </c>
@@ -7643,7 +7688,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C253" s="2" t="s">
         <v>790</v>
       </c>
@@ -7654,7 +7699,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C254" s="2" t="s">
         <v>791</v>
       </c>
@@ -7665,7 +7710,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C255" s="2" t="s">
         <v>792</v>
       </c>
@@ -7676,7 +7721,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C256" s="2" t="s">
         <v>793</v>
       </c>
@@ -7687,7 +7732,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C257" s="2" t="s">
         <v>794</v>
       </c>
@@ -7698,7 +7743,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C258" s="2" t="s">
         <v>795</v>
       </c>
@@ -7709,7 +7754,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C259" s="2" t="s">
         <v>796</v>
       </c>
@@ -7720,7 +7765,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C260" s="2" t="s">
         <v>797</v>
       </c>
@@ -7731,7 +7776,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C261" s="2" t="s">
         <v>798</v>
       </c>
@@ -7742,7 +7787,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C262" s="2" t="s">
         <v>799</v>
       </c>
@@ -7753,7 +7798,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C263" s="2" t="s">
         <v>800</v>
       </c>
@@ -7764,7 +7809,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C264" s="2" t="s">
         <v>801</v>
       </c>
@@ -7775,7 +7820,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C265" s="2" t="s">
         <v>802</v>
       </c>
@@ -7786,7 +7831,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C266" s="2" t="s">
         <v>803</v>
       </c>
@@ -7797,7 +7842,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C267" s="2" t="s">
         <v>804</v>
       </c>
@@ -7808,7 +7853,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C268" s="2" t="s">
         <v>805</v>
       </c>
@@ -7819,7 +7864,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C269" s="2" t="s">
         <v>806</v>
       </c>
@@ -7830,7 +7875,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C270" s="2" t="s">
         <v>807</v>
       </c>
@@ -7841,7 +7886,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C271" s="2" t="s">
         <v>808</v>
       </c>
@@ -7852,7 +7897,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>1594</v>
       </c>
@@ -7866,7 +7911,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B273" s="2" t="s">
         <v>689</v>
       </c>
@@ -7877,7 +7922,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C274" s="2" t="s">
         <v>228</v>
       </c>
@@ -7885,7 +7930,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C275" s="2" t="s">
         <v>229</v>
       </c>
@@ -7893,7 +7938,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C276" s="2" t="s">
         <v>230</v>
       </c>
@@ -7901,7 +7946,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C277" s="2" t="s">
         <v>231</v>
       </c>
@@ -7909,7 +7954,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C278" s="2" t="s">
         <v>232</v>
       </c>
@@ -7917,7 +7962,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C279" s="2" t="s">
         <v>233</v>
       </c>
@@ -7925,7 +7970,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C280" s="2" t="s">
         <v>234</v>
       </c>
@@ -7933,7 +7978,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C281" s="2" t="s">
         <v>235</v>
       </c>
@@ -7941,7 +7986,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C282" s="2" t="s">
         <v>236</v>
       </c>
@@ -7949,7 +7994,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C283" s="2" t="s">
         <v>237</v>
       </c>
@@ -7957,7 +8002,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>1594</v>
       </c>
@@ -7971,7 +8016,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B285" s="2" t="s">
         <v>690</v>
       </c>
@@ -7982,7 +8027,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C286" s="2" t="s">
         <v>240</v>
       </c>
@@ -7990,7 +8035,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C287" s="2" t="s">
         <v>241</v>
       </c>
@@ -7998,7 +8043,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C288" s="2" t="s">
         <v>242</v>
       </c>
@@ -8006,7 +8051,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C289" s="2" t="s">
         <v>243</v>
       </c>
@@ -8014,7 +8059,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C290" s="2" t="s">
         <v>244</v>
       </c>
@@ -8022,7 +8067,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C291" s="2" t="s">
         <v>245</v>
       </c>
@@ -8030,7 +8075,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C292" s="2" t="s">
         <v>246</v>
       </c>
@@ -8038,7 +8083,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C293" s="2" t="s">
         <v>247</v>
       </c>
@@ -8046,7 +8091,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C294" s="2" t="s">
         <v>248</v>
       </c>
@@ -8054,7 +8099,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C295" s="2" t="s">
         <v>249</v>
       </c>
@@ -8062,7 +8107,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C296" s="2" t="s">
         <v>250</v>
       </c>
@@ -8070,7 +8115,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C297" s="2" t="s">
         <v>251</v>
       </c>
@@ -8078,7 +8123,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C298" s="2" t="s">
         <v>252</v>
       </c>
@@ -8086,7 +8131,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C299" s="2" t="s">
         <v>253</v>
       </c>
@@ -8094,7 +8139,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C300" s="2" t="s">
         <v>254</v>
       </c>
@@ -8102,7 +8147,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C301" s="2" t="s">
         <v>255</v>
       </c>
@@ -8110,7 +8155,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
         <v>1594</v>
       </c>
@@ -8124,7 +8169,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B303" s="2" t="s">
         <v>1618</v>
       </c>
@@ -8135,7 +8180,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C304" s="2" t="s">
         <v>258</v>
       </c>
@@ -8143,7 +8188,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C305" s="2" t="s">
         <v>259</v>
       </c>
@@ -8151,7 +8196,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C306" s="2" t="s">
         <v>260</v>
       </c>
@@ -8159,7 +8204,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C307" s="2" t="s">
         <v>261</v>
       </c>
@@ -8167,7 +8212,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>1595</v>
       </c>
@@ -8185,7 +8230,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B309" s="2" t="s">
         <v>691</v>
       </c>
@@ -8200,7 +8245,7 @@
       </c>
       <c r="F309"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C310" s="2" t="s">
         <v>263</v>
       </c>
@@ -8212,7 +8257,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C311" s="2" t="s">
         <v>809</v>
       </c>
@@ -8223,7 +8268,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C312" s="2" t="s">
         <v>264</v>
       </c>
@@ -8232,7 +8277,7 @@
       </c>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C313" s="2" t="s">
         <v>810</v>
       </c>
@@ -8243,7 +8288,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C314" s="2" t="s">
         <v>811</v>
       </c>
@@ -8254,7 +8299,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C315" s="2" t="s">
         <v>266</v>
       </c>
@@ -8263,7 +8308,7 @@
       </c>
       <c r="E315" s="5"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C316" s="2" t="s">
         <v>267</v>
       </c>
@@ -8272,7 +8317,7 @@
       </c>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C317" s="2" t="s">
         <v>812</v>
       </c>
@@ -8283,7 +8328,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C318" s="2" t="s">
         <v>813</v>
       </c>
@@ -8294,7 +8339,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C319" s="2" t="s">
         <v>268</v>
       </c>
@@ -8303,7 +8348,7 @@
       </c>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C320" s="2" t="s">
         <v>269</v>
       </c>
@@ -8312,7 +8357,7 @@
       </c>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C321" s="2" t="s">
         <v>270</v>
       </c>
@@ -8321,7 +8366,7 @@
       </c>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C322" s="2" t="s">
         <v>271</v>
       </c>
@@ -8330,7 +8375,7 @@
       </c>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C323" s="2" t="s">
         <v>272</v>
       </c>
@@ -8339,7 +8384,7 @@
       </c>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C324" s="2" t="s">
         <v>275</v>
       </c>
@@ -8350,7 +8395,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="325" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C325" s="2" t="s">
         <v>273</v>
       </c>
@@ -8359,7 +8404,7 @@
       </c>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C326" s="2" t="s">
         <v>814</v>
       </c>
@@ -8370,7 +8415,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="327" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C327" s="2" t="s">
         <v>274</v>
       </c>
@@ -8379,7 +8424,7 @@
       </c>
       <c r="E327" s="5"/>
     </row>
-    <row r="328" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C328" s="2" t="s">
         <v>815</v>
       </c>
@@ -8390,7 +8435,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="329" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C329" s="2" t="s">
         <v>816</v>
       </c>
@@ -8401,7 +8446,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="330" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C330" s="2" t="s">
         <v>276</v>
       </c>
@@ -8410,7 +8455,7 @@
       </c>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C331" s="2" t="s">
         <v>277</v>
       </c>
@@ -8419,7 +8464,7 @@
       </c>
       <c r="E331" s="5"/>
     </row>
-    <row r="332" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C332" s="2" t="s">
         <v>817</v>
       </c>
@@ -8430,7 +8475,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="333" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C333" s="2" t="s">
         <v>818</v>
       </c>
@@ -8441,7 +8486,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="334" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C334" s="2" t="s">
         <v>278</v>
       </c>
@@ -8450,7 +8495,7 @@
       </c>
       <c r="E334" s="5"/>
     </row>
-    <row r="335" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C335" s="2" t="s">
         <v>279</v>
       </c>
@@ -8459,7 +8504,7 @@
       </c>
       <c r="E335" s="5"/>
     </row>
-    <row r="336" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C336" s="2" t="s">
         <v>280</v>
       </c>
@@ -8468,7 +8513,7 @@
       </c>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C337" s="2" t="s">
         <v>281</v>
       </c>
@@ -8477,7 +8522,7 @@
       </c>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
         <v>1595</v>
       </c>
@@ -8491,7 +8536,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B339" s="2" t="s">
         <v>692</v>
       </c>
@@ -8502,7 +8547,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C340" s="2" t="s">
         <v>284</v>
       </c>
@@ -8510,7 +8555,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C341" s="2" t="s">
         <v>285</v>
       </c>
@@ -8518,7 +8563,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C342" s="2" t="s">
         <v>286</v>
       </c>
@@ -8526,7 +8571,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C343" s="2" t="s">
         <v>287</v>
       </c>
@@ -8534,7 +8579,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C344" s="2" t="s">
         <v>288</v>
       </c>
@@ -8542,7 +8587,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C345" s="2" t="s">
         <v>819</v>
       </c>
@@ -8553,7 +8598,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C346" s="2" t="s">
         <v>289</v>
       </c>
@@ -8562,7 +8607,7 @@
       </c>
       <c r="E346"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C347" s="2" t="s">
         <v>290</v>
       </c>
@@ -8571,7 +8616,7 @@
       </c>
       <c r="E347"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C348" s="2" t="s">
         <v>291</v>
       </c>
@@ -8580,7 +8625,7 @@
       </c>
       <c r="E348"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C349" s="2" t="s">
         <v>292</v>
       </c>
@@ -8589,7 +8634,7 @@
       </c>
       <c r="E349"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C350" s="2" t="s">
         <v>293</v>
       </c>
@@ -8598,7 +8643,7 @@
       </c>
       <c r="E350"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C351" s="2" t="s">
         <v>294</v>
       </c>
@@ -8607,7 +8652,7 @@
       </c>
       <c r="E351"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C352" s="2" t="s">
         <v>295</v>
       </c>
@@ -8616,7 +8661,7 @@
       </c>
       <c r="E352"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C353" s="2" t="s">
         <v>296</v>
       </c>
@@ -8625,7 +8670,7 @@
       </c>
       <c r="E353"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C354" s="2" t="s">
         <v>820</v>
       </c>
@@ -8636,7 +8681,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C355" s="2" t="s">
         <v>297</v>
       </c>
@@ -8644,7 +8689,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
         <v>1596</v>
       </c>
@@ -8658,7 +8703,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B357" s="2" t="s">
         <v>693</v>
       </c>
@@ -8669,7 +8714,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C358" s="2" t="s">
         <v>300</v>
       </c>
@@ -8677,7 +8722,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C359" s="2" t="s">
         <v>301</v>
       </c>
@@ -8685,7 +8730,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C360" s="2" t="s">
         <v>302</v>
       </c>
@@ -8693,7 +8738,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C361" s="2" t="s">
         <v>303</v>
       </c>
@@ -8701,7 +8746,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C362" s="2" t="s">
         <v>304</v>
       </c>
@@ -8709,7 +8754,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C363" s="2" t="s">
         <v>305</v>
       </c>
@@ -8717,7 +8762,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C364" s="2" t="s">
         <v>306</v>
       </c>
@@ -8725,7 +8770,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C365" s="2" t="s">
         <v>307</v>
       </c>
@@ -8733,7 +8778,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C366" s="2" t="s">
         <v>308</v>
       </c>
@@ -8741,7 +8786,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C367" s="2" t="s">
         <v>309</v>
       </c>
@@ -8749,7 +8794,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
         <v>1596</v>
       </c>
@@ -8763,7 +8808,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B369" s="2" t="s">
         <v>694</v>
       </c>
@@ -8774,7 +8819,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C370" s="2" t="s">
         <v>312</v>
       </c>
@@ -8782,7 +8827,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C371" s="2" t="s">
         <v>313</v>
       </c>
@@ -8790,7 +8835,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C372" s="2" t="s">
         <v>314</v>
       </c>
@@ -8798,7 +8843,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C373" s="2" t="s">
         <v>315</v>
       </c>
@@ -8806,7 +8851,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C374" s="2" t="s">
         <v>316</v>
       </c>
@@ -8814,7 +8859,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C375" s="2" t="s">
         <v>712</v>
       </c>
@@ -8822,7 +8867,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C376" s="2" t="s">
         <v>713</v>
       </c>
@@ -8830,7 +8875,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C377" s="2" t="s">
         <v>317</v>
       </c>
@@ -8838,7 +8883,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C378" s="2" t="s">
         <v>318</v>
       </c>
@@ -8846,7 +8891,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C379" s="2" t="s">
         <v>319</v>
       </c>
@@ -8854,7 +8899,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C380" s="2" t="s">
         <v>320</v>
       </c>
@@ -8862,7 +8907,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C381" s="2" t="s">
         <v>321</v>
       </c>
@@ -8870,7 +8915,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C382" s="2" t="s">
         <v>322</v>
       </c>
@@ -8878,7 +8923,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C383" s="2" t="s">
         <v>323</v>
       </c>
@@ -8886,7 +8931,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C384" s="2" t="s">
         <v>324</v>
       </c>
@@ -8894,7 +8939,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C385" s="2" t="s">
         <v>325</v>
       </c>
@@ -8902,7 +8947,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C386" s="2" t="s">
         <v>714</v>
       </c>
@@ -8910,7 +8955,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C387" s="2" t="s">
         <v>715</v>
       </c>
@@ -8918,7 +8963,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C388" s="2" t="s">
         <v>326</v>
       </c>
@@ -8926,7 +8971,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C389" s="2" t="s">
         <v>327</v>
       </c>
@@ -8934,7 +8979,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A390" s="1" t="s">
         <v>1596</v>
       </c>
@@ -8951,7 +8996,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B391" s="2" t="s">
         <v>695</v>
       </c>
@@ -8965,7 +9010,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C392" s="2" t="s">
         <v>328</v>
       </c>
@@ -8974,7 +9019,7 @@
       </c>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C393" s="2" t="s">
         <v>329</v>
       </c>
@@ -8983,7 +9028,7 @@
       </c>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C394" s="2" t="s">
         <v>823</v>
       </c>
@@ -8994,7 +9039,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C395" s="2" t="s">
         <v>330</v>
       </c>
@@ -9003,7 +9048,7 @@
       </c>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C396" s="2" t="s">
         <v>331</v>
       </c>
@@ -9012,7 +9057,7 @@
       </c>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C397" s="2" t="s">
         <v>332</v>
       </c>
@@ -9021,7 +9066,7 @@
       </c>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C398" s="2" t="s">
         <v>824</v>
       </c>
@@ -9032,7 +9077,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C399" s="2" t="s">
         <v>825</v>
       </c>
@@ -9043,7 +9088,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C400" s="2" t="s">
         <v>333</v>
       </c>
@@ -9052,7 +9097,7 @@
       </c>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C401" s="2" t="s">
         <v>334</v>
       </c>
@@ -9061,7 +9106,7 @@
       </c>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C402" s="2" t="s">
         <v>826</v>
       </c>
@@ -9072,7 +9117,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C403" s="2" t="s">
         <v>335</v>
       </c>
@@ -9081,7 +9126,7 @@
       </c>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C404" s="2" t="s">
         <v>336</v>
       </c>
@@ -9090,7 +9135,7 @@
       </c>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C405" s="2" t="s">
         <v>337</v>
       </c>
@@ -9099,7 +9144,7 @@
       </c>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A406" s="1" t="s">
         <v>1596</v>
       </c>
@@ -9113,7 +9158,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B407" s="2" t="s">
         <v>696</v>
       </c>
@@ -9124,7 +9169,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C408" s="2" t="s">
         <v>340</v>
       </c>
@@ -9132,7 +9177,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C409" s="2" t="s">
         <v>341</v>
       </c>
@@ -9140,7 +9185,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C410" s="2" t="s">
         <v>342</v>
       </c>
@@ -9148,7 +9193,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C411" s="2" t="s">
         <v>343</v>
       </c>
@@ -9156,7 +9201,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C412" s="2" t="s">
         <v>344</v>
       </c>
@@ -9164,7 +9209,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C413" s="2" t="s">
         <v>345</v>
       </c>
@@ -9172,7 +9217,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C414" s="2" t="s">
         <v>346</v>
       </c>
@@ -9180,7 +9225,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C415" s="2" t="s">
         <v>347</v>
       </c>
@@ -9188,7 +9233,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C416" s="2" t="s">
         <v>348</v>
       </c>
@@ -9196,7 +9241,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C417" s="2" t="s">
         <v>349</v>
       </c>
@@ -9204,7 +9249,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C418" s="2" t="s">
         <v>350</v>
       </c>
@@ -9212,7 +9257,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C419" s="2" t="s">
         <v>351</v>
       </c>
@@ -9220,7 +9265,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C420" s="2" t="s">
         <v>352</v>
       </c>
@@ -9228,7 +9273,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C421" s="2" t="s">
         <v>353</v>
       </c>
@@ -9236,7 +9281,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C422" s="2" t="s">
         <v>354</v>
       </c>
@@ -9244,7 +9289,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C423" s="2" t="s">
         <v>355</v>
       </c>
@@ -9252,7 +9297,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C424" s="2" t="s">
         <v>356</v>
       </c>
@@ -9260,7 +9305,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C425" s="2" t="s">
         <v>357</v>
       </c>
@@ -9268,7 +9313,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A426" s="1" t="s">
         <v>1596</v>
       </c>
@@ -9282,7 +9327,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B427" s="2" t="s">
         <v>697</v>
       </c>
@@ -9293,7 +9338,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C428" s="2" t="s">
         <v>360</v>
       </c>
@@ -9301,7 +9346,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C429" s="2" t="s">
         <v>361</v>
       </c>
@@ -9309,7 +9354,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C430" s="2" t="s">
         <v>362</v>
       </c>
@@ -9317,7 +9362,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C431" s="2" t="s">
         <v>363</v>
       </c>
@@ -9325,7 +9370,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C432" s="2" t="s">
         <v>364</v>
       </c>
@@ -9333,7 +9378,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C433" s="2" t="s">
         <v>365</v>
       </c>
@@ -9341,7 +9386,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C434" s="2" t="s">
         <v>366</v>
       </c>
@@ -9349,7 +9394,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C435" s="2" t="s">
         <v>367</v>
       </c>
@@ -9357,7 +9402,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C436" s="2" t="s">
         <v>368</v>
       </c>
@@ -9365,7 +9410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A437" s="1" t="s">
         <v>1596</v>
       </c>
@@ -9379,7 +9424,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B438" s="2" t="s">
         <v>698</v>
       </c>
@@ -9390,7 +9435,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C439" s="2" t="s">
         <v>371</v>
       </c>
@@ -9398,7 +9443,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C440" s="2" t="s">
         <v>372</v>
       </c>
@@ -9406,7 +9451,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C441" s="2" t="s">
         <v>374</v>
       </c>
@@ -9414,7 +9459,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C442" s="2" t="s">
         <v>376</v>
       </c>
@@ -9422,7 +9467,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C443" s="2" t="s">
         <v>377</v>
       </c>
@@ -9430,7 +9475,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A444" s="1" t="s">
         <v>1596</v>
       </c>
@@ -9444,7 +9489,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B445" s="2" t="s">
         <v>699</v>
       </c>
@@ -9455,7 +9500,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C446" s="2" t="s">
         <v>380</v>
       </c>
@@ -9463,7 +9508,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C447" s="2" t="s">
         <v>381</v>
       </c>
@@ -9471,7 +9516,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C448" s="2" t="s">
         <v>382</v>
       </c>
@@ -9479,7 +9524,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C449" s="2" t="s">
         <v>383</v>
       </c>
@@ -9487,7 +9532,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C450" s="2" t="s">
         <v>384</v>
       </c>
@@ -9495,7 +9540,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A451" s="1" t="s">
         <v>1596</v>
       </c>
@@ -9509,7 +9554,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B452" s="2" t="s">
         <v>700</v>
       </c>
@@ -9523,7 +9568,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C453" s="2" t="s">
         <v>716</v>
       </c>
@@ -9534,7 +9579,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C454" s="2" t="s">
         <v>827</v>
       </c>
@@ -9545,7 +9590,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C455" s="2" t="s">
         <v>387</v>
       </c>
@@ -9553,7 +9598,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A456" s="1" t="s">
         <v>1597</v>
       </c>
@@ -9567,7 +9612,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B457" s="2" t="s">
         <v>701</v>
       </c>
@@ -9578,7 +9623,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A458" s="1" t="s">
         <v>1598</v>
       </c>
@@ -9592,7 +9637,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B459" s="2" t="s">
         <v>1619</v>
       </c>
@@ -9603,7 +9648,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C460" s="2" t="s">
         <v>392</v>
       </c>
@@ -9611,7 +9656,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C461" s="2" t="s">
         <v>393</v>
       </c>
@@ -9619,7 +9664,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C462" s="2" t="s">
         <v>394</v>
       </c>
@@ -9627,7 +9672,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C463" s="2" t="s">
         <v>395</v>
       </c>
@@ -9635,7 +9680,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C464" s="2" t="s">
         <v>396</v>
       </c>
@@ -9643,7 +9688,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="465" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C465" s="2" t="s">
         <v>397</v>
       </c>
@@ -9651,7 +9696,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="466" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C466" s="2" t="s">
         <v>398</v>
       </c>
@@ -9659,7 +9704,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="467" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C467" s="2" t="s">
         <v>399</v>
       </c>
@@ -9667,7 +9712,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="468" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C468" s="2" t="s">
         <v>400</v>
       </c>
@@ -9675,7 +9720,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="469" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C469" s="2" t="s">
         <v>401</v>
       </c>
@@ -9683,7 +9728,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="470" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C470" s="2" t="s">
         <v>402</v>
       </c>
@@ -9691,7 +9736,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="471" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C471" s="2" t="s">
         <v>403</v>
       </c>
@@ -9699,7 +9744,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="472" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C472" s="2" t="s">
         <v>404</v>
       </c>
@@ -9707,7 +9752,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="473" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C473" s="2" t="s">
         <v>405</v>
       </c>
@@ -9715,7 +9760,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="474" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C474" s="2" t="s">
         <v>406</v>
       </c>
@@ -9723,7 +9768,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="475" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C475" s="2" t="s">
         <v>407</v>
       </c>
@@ -9731,15 +9776,15 @@
         <v>947</v>
       </c>
     </row>
-    <row r="476" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C476" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D476" s="2" t="s">
+      <c r="D476" s="6" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="477" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C477" s="2" t="s">
         <v>409</v>
       </c>
@@ -9747,7 +9792,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="478" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C478" s="2" t="s">
         <v>410</v>
       </c>
@@ -9755,15 +9800,15 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="479" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C479" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D479" s="2" t="s">
+      <c r="D479" s="6" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="480" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C480" s="2" t="s">
         <v>412</v>
       </c>
@@ -9771,7 +9816,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C481" s="2" t="s">
         <v>413</v>
       </c>
@@ -9779,7 +9824,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C482" s="2" t="s">
         <v>414</v>
       </c>
@@ -9787,7 +9832,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C483" s="2" t="s">
         <v>415</v>
       </c>
@@ -9795,7 +9840,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C484" s="2" t="s">
         <v>416</v>
       </c>
@@ -9803,7 +9848,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A485" s="1" t="s">
         <v>1599</v>
       </c>
@@ -9817,7 +9862,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B486" s="2" t="s">
         <v>702</v>
       </c>
@@ -9828,7 +9873,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C487" s="2" t="s">
         <v>419</v>
       </c>
@@ -9836,7 +9881,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C488" s="2" t="s">
         <v>420</v>
       </c>
@@ -9844,7 +9889,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C489" s="2" t="s">
         <v>421</v>
       </c>
@@ -9852,7 +9897,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C490" s="2" t="s">
         <v>422</v>
       </c>
@@ -9860,7 +9905,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C491" s="2" t="s">
         <v>423</v>
       </c>
@@ -9868,7 +9913,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C492" s="2" t="s">
         <v>424</v>
       </c>
@@ -9876,7 +9921,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C493" s="2" t="s">
         <v>425</v>
       </c>
@@ -9884,7 +9929,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C494" s="2" t="s">
         <v>426</v>
       </c>
@@ -9892,7 +9937,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C495" s="2" t="s">
         <v>427</v>
       </c>
@@ -9900,7 +9945,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C496" s="2" t="s">
         <v>428</v>
       </c>
@@ -9908,7 +9953,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C497" s="2" t="s">
         <v>429</v>
       </c>
@@ -9916,7 +9961,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C498" s="2" t="s">
         <v>430</v>
       </c>
@@ -9924,7 +9969,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C499" s="2" t="s">
         <v>431</v>
       </c>
@@ -9932,7 +9977,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C500" s="2" t="s">
         <v>432</v>
       </c>
@@ -9940,7 +9985,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C501" s="2" t="s">
         <v>433</v>
       </c>
@@ -9948,7 +9993,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C502" s="2" t="s">
         <v>434</v>
       </c>
@@ -9956,7 +10001,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C503" s="2" t="s">
         <v>435</v>
       </c>
@@ -9964,7 +10009,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C504" s="2" t="s">
         <v>436</v>
       </c>
@@ -9972,7 +10017,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C505" s="2" t="s">
         <v>437</v>
       </c>
@@ -9980,7 +10025,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C506" s="2" t="s">
         <v>438</v>
       </c>
@@ -9988,7 +10033,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C507" s="2" t="s">
         <v>439</v>
       </c>
@@ -9996,7 +10041,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C508" s="2" t="s">
         <v>440</v>
       </c>
@@ -10004,7 +10049,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A509" s="1" t="s">
         <v>1599</v>
       </c>
@@ -10018,7 +10063,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B510" s="2" t="s">
         <v>703</v>
       </c>
@@ -10029,7 +10074,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C511" s="2" t="s">
         <v>443</v>
       </c>
@@ -10037,7 +10082,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C512" s="2" t="s">
         <v>444</v>
       </c>
@@ -10045,7 +10090,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="513" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C513" s="2" t="s">
         <v>445</v>
       </c>
@@ -10053,7 +10098,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="514" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C514" s="2" t="s">
         <v>446</v>
       </c>
@@ -10061,7 +10106,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="515" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C515" s="2" t="s">
         <v>447</v>
       </c>
@@ -10069,7 +10114,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="516" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C516" s="2" t="s">
         <v>448</v>
       </c>
@@ -10077,7 +10122,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="517" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C517" s="2" t="s">
         <v>449</v>
       </c>
@@ -10085,7 +10130,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="518" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C518" s="2" t="s">
         <v>450</v>
       </c>
@@ -10093,7 +10138,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="519" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C519" s="2" t="s">
         <v>451</v>
       </c>
@@ -10101,7 +10146,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="520" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C520" s="2" t="s">
         <v>452</v>
       </c>
@@ -10109,7 +10154,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="521" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C521" s="2" t="s">
         <v>453</v>
       </c>
@@ -10117,7 +10162,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="522" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C522" s="2" t="s">
         <v>454</v>
       </c>
@@ -10125,7 +10170,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="523" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C523" s="2" t="s">
         <v>455</v>
       </c>
@@ -10133,7 +10178,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="524" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C524" s="2" t="s">
         <v>456</v>
       </c>
@@ -10141,7 +10186,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="525" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C525" s="2" t="s">
         <v>457</v>
       </c>
@@ -10149,7 +10194,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="526" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C526" s="2" t="s">
         <v>458</v>
       </c>
@@ -10157,7 +10202,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="527" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C527" s="2" t="s">
         <v>459</v>
       </c>
@@ -10165,7 +10210,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="528" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C528" s="2" t="s">
         <v>460</v>
       </c>
@@ -10173,7 +10218,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C529" s="2" t="s">
         <v>461</v>
       </c>
@@ -10181,7 +10226,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C530" s="2" t="s">
         <v>462</v>
       </c>
@@ -10189,7 +10234,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C531" s="2" t="s">
         <v>463</v>
       </c>
@@ -10197,7 +10242,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C532" s="2" t="s">
         <v>464</v>
       </c>
@@ -10205,7 +10250,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A533" s="1" t="s">
         <v>1600</v>
       </c>
@@ -10219,7 +10264,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B534" s="2" t="s">
         <v>1620</v>
       </c>
@@ -10230,7 +10275,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C535" s="2" t="s">
         <v>467</v>
       </c>
@@ -10238,7 +10283,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C536" s="2" t="s">
         <v>468</v>
       </c>
@@ -10246,7 +10291,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C537" s="2" t="s">
         <v>469</v>
       </c>
@@ -10254,7 +10299,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C538" s="2" t="s">
         <v>470</v>
       </c>
@@ -10262,7 +10307,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C539" s="2" t="s">
         <v>471</v>
       </c>
@@ -10270,7 +10315,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C540" s="2" t="s">
         <v>472</v>
       </c>
@@ -10278,7 +10323,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C541" s="2" t="s">
         <v>473</v>
       </c>
@@ -10286,7 +10331,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C542" s="2" t="s">
         <v>474</v>
       </c>
@@ -10294,7 +10339,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C543" s="2" t="s">
         <v>475</v>
       </c>
@@ -10302,7 +10347,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C544" s="2" t="s">
         <v>476</v>
       </c>
@@ -10310,7 +10355,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="545" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C545" s="2" t="s">
         <v>477</v>
       </c>
@@ -10318,7 +10363,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="546" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C546" s="2" t="s">
         <v>478</v>
       </c>
@@ -10326,7 +10371,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="547" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C547" s="2" t="s">
         <v>479</v>
       </c>
@@ -10334,7 +10379,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="548" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C548" s="2" t="s">
         <v>480</v>
       </c>
@@ -10342,7 +10387,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="549" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C549" s="2" t="s">
         <v>481</v>
       </c>
@@ -10350,7 +10395,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="550" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C550" s="2" t="s">
         <v>482</v>
       </c>
@@ -10358,7 +10403,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="551" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C551" s="2" t="s">
         <v>483</v>
       </c>
@@ -10366,7 +10411,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="552" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C552" s="2" t="s">
         <v>484</v>
       </c>
@@ -10374,7 +10419,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="553" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C553" s="2" t="s">
         <v>485</v>
       </c>
@@ -10382,7 +10427,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="554" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C554" s="2" t="s">
         <v>486</v>
       </c>
@@ -10390,7 +10435,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="555" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C555" s="2" t="s">
         <v>487</v>
       </c>
@@ -10398,7 +10443,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="556" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C556" s="2" t="s">
         <v>488</v>
       </c>
@@ -10406,7 +10451,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="557" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C557" s="2" t="s">
         <v>489</v>
       </c>
@@ -10414,7 +10459,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="558" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C558" s="2" t="s">
         <v>490</v>
       </c>
@@ -10422,7 +10467,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="559" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C559" s="2" t="s">
         <v>491</v>
       </c>
@@ -10430,7 +10475,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="560" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C560" s="2" t="s">
         <v>492</v>
       </c>
@@ -10438,7 +10483,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C561" s="2" t="s">
         <v>493</v>
       </c>
@@ -10446,7 +10491,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C562" s="2" t="s">
         <v>494</v>
       </c>
@@ -10454,7 +10499,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A563" s="1" t="s">
         <v>1600</v>
       </c>
@@ -10468,7 +10513,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B564" s="2" t="s">
         <v>704</v>
       </c>
@@ -10479,7 +10524,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C565" s="2" t="s">
         <v>497</v>
       </c>
@@ -10487,7 +10532,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C566" s="2" t="s">
         <v>498</v>
       </c>
@@ -10495,7 +10540,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C567" s="2" t="s">
         <v>499</v>
       </c>
@@ -10503,7 +10548,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C568" s="2" t="s">
         <v>500</v>
       </c>
@@ -10511,7 +10556,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A569" s="1" t="s">
         <v>1600</v>
       </c>
@@ -10525,7 +10570,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B570" s="2" t="s">
         <v>1621</v>
       </c>
@@ -10536,7 +10581,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C571" s="2" t="s">
         <v>503</v>
       </c>
@@ -10544,7 +10589,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C572" s="2" t="s">
         <v>504</v>
       </c>
@@ -10552,7 +10597,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C573" s="2" t="s">
         <v>505</v>
       </c>
@@ -10560,7 +10605,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C574" s="2" t="s">
         <v>506</v>
       </c>
@@ -10568,7 +10613,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C575" s="2" t="s">
         <v>507</v>
       </c>
@@ -10576,7 +10621,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C576" s="2" t="s">
         <v>508</v>
       </c>
@@ -10584,7 +10629,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="577" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C577" s="2" t="s">
         <v>509</v>
       </c>
@@ -10592,7 +10637,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="578" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C578" s="2" t="s">
         <v>510</v>
       </c>
@@ -10600,7 +10645,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="579" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C579" s="2" t="s">
         <v>511</v>
       </c>
@@ -10608,7 +10653,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="580" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C580" s="2" t="s">
         <v>512</v>
       </c>
@@ -10616,7 +10661,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="581" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C581" s="2" t="s">
         <v>513</v>
       </c>
@@ -10624,7 +10669,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="582" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C582" s="2" t="s">
         <v>514</v>
       </c>
@@ -10632,7 +10677,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="583" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C583" s="2" t="s">
         <v>515</v>
       </c>
@@ -10640,7 +10685,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="584" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C584" s="2" t="s">
         <v>516</v>
       </c>
@@ -10648,7 +10693,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="585" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C585" s="2" t="s">
         <v>517</v>
       </c>
@@ -10656,7 +10701,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="586" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C586" s="2" t="s">
         <v>518</v>
       </c>
@@ -10664,7 +10709,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="587" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C587" s="2" t="s">
         <v>519</v>
       </c>
@@ -10672,7 +10717,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="588" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C588" s="2" t="s">
         <v>520</v>
       </c>
@@ -10680,7 +10725,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="589" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C589" s="2" t="s">
         <v>521</v>
       </c>
@@ -10688,7 +10733,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="590" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C590" s="2" t="s">
         <v>522</v>
       </c>
@@ -10696,7 +10741,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="591" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C591" s="2" t="s">
         <v>523</v>
       </c>
@@ -10704,7 +10749,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="592" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C592" s="2" t="s">
         <v>524</v>
       </c>
@@ -10712,7 +10757,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C593" s="2" t="s">
         <v>525</v>
       </c>
@@ -10720,7 +10765,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C594" s="2" t="s">
         <v>526</v>
       </c>
@@ -10728,7 +10773,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C595" s="2" t="s">
         <v>527</v>
       </c>
@@ -10736,7 +10781,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C596" s="2" t="s">
         <v>528</v>
       </c>
@@ -10744,7 +10789,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C597" s="2" t="s">
         <v>529</v>
       </c>
@@ -10752,7 +10797,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C598" s="2" t="s">
         <v>530</v>
       </c>
@@ -10760,7 +10805,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C599" s="2" t="s">
         <v>531</v>
       </c>
@@ -10768,7 +10813,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C600" s="2" t="s">
         <v>532</v>
       </c>
@@ -10776,7 +10821,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C601" s="2" t="s">
         <v>533</v>
       </c>
@@ -10784,7 +10829,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C602" s="2" t="s">
         <v>534</v>
       </c>
@@ -10792,7 +10837,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C603" s="2" t="s">
         <v>535</v>
       </c>
@@ -10800,7 +10845,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C604" s="2" t="s">
         <v>536</v>
       </c>
@@ -10808,7 +10853,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A605" s="1" t="s">
         <v>1600</v>
       </c>
@@ -10822,7 +10867,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B606" s="2" t="s">
         <v>1622</v>
       </c>
@@ -10833,7 +10878,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C607" s="2" t="s">
         <v>539</v>
       </c>
@@ -10841,7 +10886,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C608" s="2" t="s">
         <v>540</v>
       </c>
@@ -10849,7 +10894,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="609" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C609" s="2" t="s">
         <v>541</v>
       </c>
@@ -10857,7 +10902,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="610" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C610" s="2" t="s">
         <v>542</v>
       </c>
@@ -10865,7 +10910,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="611" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C611" s="2" t="s">
         <v>543</v>
       </c>
@@ -10873,7 +10918,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="612" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C612" s="2" t="s">
         <v>544</v>
       </c>
@@ -10881,7 +10926,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="613" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C613" s="2" t="s">
         <v>545</v>
       </c>
@@ -10889,7 +10934,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="614" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C614" s="2" t="s">
         <v>546</v>
       </c>
@@ -10897,7 +10942,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="615" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C615" s="2" t="s">
         <v>547</v>
       </c>
@@ -10905,7 +10950,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="616" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C616" s="2" t="s">
         <v>548</v>
       </c>
@@ -10913,7 +10958,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="617" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C617" s="2" t="s">
         <v>549</v>
       </c>
@@ -10921,7 +10966,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="618" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C618" s="2" t="s">
         <v>550</v>
       </c>
@@ -10929,7 +10974,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="619" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C619" s="2" t="s">
         <v>551</v>
       </c>
@@ -10937,7 +10982,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="620" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C620" s="2" t="s">
         <v>552</v>
       </c>
@@ -10945,7 +10990,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="621" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C621" s="2" t="s">
         <v>553</v>
       </c>
@@ -10953,7 +10998,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="622" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C622" s="2" t="s">
         <v>554</v>
       </c>
@@ -10961,7 +11006,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="623" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C623" s="2" t="s">
         <v>555</v>
       </c>
@@ -10969,7 +11014,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="624" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C624" s="2" t="s">
         <v>556</v>
       </c>
@@ -10977,7 +11022,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="625" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C625" s="2" t="s">
         <v>557</v>
       </c>
@@ -10985,7 +11030,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="626" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C626" s="2" t="s">
         <v>558</v>
       </c>
@@ -10993,7 +11038,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="627" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C627" s="2" t="s">
         <v>559</v>
       </c>
@@ -11001,7 +11046,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="628" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C628" s="2" t="s">
         <v>560</v>
       </c>
@@ -11009,7 +11054,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="629" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C629" s="2" t="s">
         <v>561</v>
       </c>
@@ -11017,7 +11062,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="630" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C630" s="2" t="s">
         <v>562</v>
       </c>
@@ -11025,7 +11070,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="631" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C631" s="2" t="s">
         <v>563</v>
       </c>
@@ -11033,7 +11078,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="632" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C632" s="2" t="s">
         <v>564</v>
       </c>
@@ -11041,7 +11086,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="633" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C633" s="2" t="s">
         <v>565</v>
       </c>
@@ -11049,7 +11094,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="634" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C634" s="2" t="s">
         <v>566</v>
       </c>
@@ -11057,7 +11102,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="635" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C635" s="2" t="s">
         <v>567</v>
       </c>
@@ -11065,7 +11110,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="636" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C636" s="2" t="s">
         <v>568</v>
       </c>
@@ -11073,7 +11118,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="637" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C637" s="2" t="s">
         <v>569</v>
       </c>
@@ -11081,7 +11126,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="638" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C638" s="2" t="s">
         <v>570</v>
       </c>
@@ -11089,7 +11134,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="639" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C639" s="2" t="s">
         <v>571</v>
       </c>
@@ -11097,7 +11142,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="640" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C640" s="2" t="s">
         <v>572</v>
       </c>
@@ -11105,7 +11150,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C641" s="2" t="s">
         <v>573</v>
       </c>
@@ -11113,7 +11158,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C642" s="2" t="s">
         <v>574</v>
       </c>
@@ -11121,7 +11166,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C643" s="2" t="s">
         <v>575</v>
       </c>
@@ -11129,7 +11174,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A644" s="1" t="s">
         <v>1601</v>
       </c>
@@ -11146,7 +11191,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B645" s="2" t="s">
         <v>705</v>
       </c>
@@ -11160,7 +11205,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C646" s="2" t="s">
         <v>735</v>
       </c>
@@ -11171,7 +11216,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C647" s="2" t="s">
         <v>736</v>
       </c>
@@ -11182,7 +11227,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C648" s="2" t="s">
         <v>737</v>
       </c>
@@ -11193,7 +11238,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C649" s="2" t="s">
         <v>738</v>
       </c>
@@ -11204,7 +11249,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C650" s="2" t="s">
         <v>739</v>
       </c>
@@ -11215,7 +11260,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C651" s="2" t="s">
         <v>740</v>
       </c>
@@ -11226,7 +11271,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C652" s="2" t="s">
         <v>741</v>
       </c>
@@ -11237,7 +11282,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C653" s="2" t="s">
         <v>828</v>
       </c>
@@ -11248,7 +11293,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C654" s="2" t="s">
         <v>742</v>
       </c>
@@ -11259,18 +11304,18 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C655" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="D655" s="2" t="s">
+      <c r="D655" s="6" t="s">
         <v>1382</v>
       </c>
       <c r="E655" s="4" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C656" s="2" t="s">
         <v>829</v>
       </c>
@@ -11281,7 +11326,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="657" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C657" s="2" t="s">
         <v>830</v>
       </c>
@@ -11292,7 +11337,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="658" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C658" s="2" t="s">
         <v>831</v>
       </c>
@@ -11303,7 +11348,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="659" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C659" s="2" t="s">
         <v>832</v>
       </c>
@@ -11314,7 +11359,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="660" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C660" s="2" t="s">
         <v>833</v>
       </c>
@@ -11325,7 +11370,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="661" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C661" s="2" t="s">
         <v>834</v>
       </c>
@@ -11336,7 +11381,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="662" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C662" s="2" t="s">
         <v>835</v>
       </c>
@@ -11347,7 +11392,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="663" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C663" s="2" t="s">
         <v>836</v>
       </c>
@@ -11358,7 +11403,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="664" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C664" s="2" t="s">
         <v>837</v>
       </c>
@@ -11369,7 +11414,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="665" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C665" s="2" t="s">
         <v>838</v>
       </c>
@@ -11380,7 +11425,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="666" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C666" s="2" t="s">
         <v>839</v>
       </c>
@@ -11391,90 +11436,90 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="667" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C667" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="D667" s="2" t="s">
+      <c r="D667" s="8" t="s">
         <v>1394</v>
       </c>
       <c r="E667" s="4" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="668" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C668" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D668" s="2" t="s">
+      <c r="D668" s="6" t="s">
         <v>1395</v>
       </c>
       <c r="E668"/>
     </row>
-    <row r="669" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C669" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D669" s="2" t="s">
+      <c r="D669" s="6" t="s">
         <v>1396</v>
       </c>
       <c r="E669"/>
     </row>
-    <row r="670" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C670" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D670" s="2" t="s">
+      <c r="D670" s="7" t="s">
         <v>1397</v>
       </c>
       <c r="E670"/>
     </row>
-    <row r="671" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C671" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D671" s="2" t="s">
+      <c r="D671" s="7" t="s">
         <v>1398</v>
       </c>
       <c r="E671"/>
     </row>
-    <row r="672" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C672" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="D672" s="2" t="s">
+      <c r="D672" s="8" t="s">
         <v>1399</v>
       </c>
       <c r="E672"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C673" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D673" s="2" t="s">
+      <c r="D673" s="8" t="s">
         <v>1400</v>
       </c>
       <c r="E673"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C674" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D674" s="2" t="s">
+      <c r="D674" s="8" t="s">
         <v>1401</v>
       </c>
       <c r="E674"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C675" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D675" s="2" t="s">
+      <c r="D675" s="8" t="s">
         <v>1402</v>
       </c>
       <c r="E675"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C676" s="2" t="s">
         <v>730</v>
       </c>
@@ -11483,7 +11528,7 @@
       </c>
       <c r="E676"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C677" s="2" t="s">
         <v>841</v>
       </c>
@@ -11494,7 +11539,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C678" s="2" t="s">
         <v>731</v>
       </c>
@@ -11502,7 +11547,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C679" s="2" t="s">
         <v>732</v>
       </c>
@@ -11510,7 +11555,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A680" s="1" t="s">
         <v>1601</v>
       </c>
@@ -11520,54 +11565,54 @@
       <c r="C680" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D680" s="2" t="s">
+      <c r="D680" s="6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B681" s="2" t="s">
         <v>1623</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D681" s="2" t="s">
+      <c r="D681" s="6" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C682" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D682" s="2" t="s">
+      <c r="D682" s="6" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C683" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D683" s="2" t="s">
+      <c r="D683" s="8" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C684" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D684" s="2" t="s">
+      <c r="D684" s="8" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C685" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="D685" s="2" t="s">
+      <c r="D685" s="8" t="s">
         <v>1409</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C686" s="2" t="s">
         <v>583</v>
       </c>
@@ -11575,7 +11620,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C687" s="2" t="s">
         <v>585</v>
       </c>
@@ -11583,7 +11628,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C688" s="2" t="s">
         <v>586</v>
       </c>
@@ -11591,7 +11636,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C689" s="2" t="s">
         <v>587</v>
       </c>
@@ -11599,7 +11644,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690" s="1" t="s">
         <v>1601</v>
       </c>
@@ -11613,7 +11658,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B691" s="2" t="s">
         <v>1624</v>
       </c>
@@ -11624,7 +11669,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C692" s="2" t="s">
         <v>593</v>
       </c>
@@ -11632,7 +11677,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C693" s="2" t="s">
         <v>595</v>
       </c>
@@ -11640,23 +11685,23 @@
         <v>594</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C694" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D694" s="2" t="s">
+      <c r="D694" s="6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C695" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D695" s="2" t="s">
+      <c r="D695" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C696" s="2" t="s">
         <v>600</v>
       </c>
@@ -11664,7 +11709,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C697" s="2" t="s">
         <v>601</v>
       </c>
@@ -11672,7 +11717,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698" s="1" t="s">
         <v>1602</v>
       </c>
@@ -11689,7 +11734,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B699" s="2" t="s">
         <v>718</v>
       </c>
@@ -11701,7 +11746,7 @@
       </c>
       <c r="F699"/>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C700" s="2" t="s">
         <v>844</v>
       </c>
@@ -11710,7 +11755,7 @@
       </c>
       <c r="F700"/>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701" s="1" t="s">
         <v>1602</v>
       </c>
@@ -11727,7 +11772,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B702" s="2" t="s">
         <v>719</v>
       </c>
@@ -11738,7 +11783,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C703" s="2" t="s">
         <v>847</v>
       </c>
@@ -11746,7 +11791,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704" s="1" t="s">
         <v>1602</v>
       </c>
@@ -11760,7 +11805,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="705" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B705" s="2" t="s">
         <v>706</v>
       </c>
@@ -11771,7 +11816,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="706" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C706" s="2" t="s">
         <v>850</v>
       </c>
@@ -11779,7 +11824,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="707" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C707" s="2" t="s">
         <v>851</v>
       </c>
@@ -11787,7 +11832,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="708" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C708" s="2" t="s">
         <v>852</v>
       </c>
@@ -11795,7 +11840,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="709" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C709" s="2" t="s">
         <v>853</v>
       </c>
@@ -11803,7 +11848,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="710" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C710" s="2" t="s">
         <v>854</v>
       </c>
@@ -11811,7 +11856,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="711" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C711" s="2" t="s">
         <v>855</v>
       </c>
@@ -11819,7 +11864,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="712" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C712" s="2" t="s">
         <v>856</v>
       </c>
@@ -11827,7 +11872,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="713" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C713" s="2" t="s">
         <v>857</v>
       </c>
@@ -11835,7 +11880,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="714" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C714" s="2" t="s">
         <v>858</v>
       </c>
@@ -11843,7 +11888,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="715" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C715" s="2" t="s">
         <v>859</v>
       </c>
@@ -11851,7 +11896,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="716" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C716" s="2" t="s">
         <v>860</v>
       </c>
@@ -11859,7 +11904,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="717" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C717" s="2" t="s">
         <v>861</v>
       </c>
@@ -11867,7 +11912,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="718" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C718" s="2" t="s">
         <v>862</v>
       </c>
@@ -11875,7 +11920,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="719" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C719" s="2" t="s">
         <v>863</v>
       </c>
@@ -11883,7 +11928,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="720" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C720" s="2" t="s">
         <v>864</v>
       </c>
@@ -11891,7 +11936,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C721" s="2" t="s">
         <v>865</v>
       </c>
@@ -11899,7 +11944,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C722" s="2" t="s">
         <v>866</v>
       </c>
@@ -11907,7 +11952,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C723" s="2" t="s">
         <v>867</v>
       </c>
@@ -11915,7 +11960,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C724" s="2" t="s">
         <v>868</v>
       </c>
@@ -11923,7 +11968,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A725" s="1" t="s">
         <v>1603</v>
       </c>
@@ -11937,7 +11982,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B726" s="2" t="s">
         <v>707</v>
       </c>
@@ -11948,7 +11993,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C727" s="2" t="s">
         <v>604</v>
       </c>
@@ -11956,7 +12001,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C728" s="2" t="s">
         <v>605</v>
       </c>
@@ -11964,7 +12009,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C729" s="2" t="s">
         <v>606</v>
       </c>
@@ -11972,7 +12017,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C730" s="2" t="s">
         <v>607</v>
       </c>
@@ -11980,7 +12025,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C731" s="2" t="s">
         <v>608</v>
       </c>
@@ -11988,7 +12033,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C732" s="2" t="s">
         <v>609</v>
       </c>
@@ -11996,7 +12041,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C733" s="2" t="s">
         <v>610</v>
       </c>
@@ -12004,7 +12049,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C734" s="2" t="s">
         <v>611</v>
       </c>
@@ -12012,7 +12057,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C735" s="2" t="s">
         <v>612</v>
       </c>
@@ -12020,7 +12065,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C736" s="2" t="s">
         <v>613</v>
       </c>
@@ -12028,7 +12073,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="737" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C737" s="2" t="s">
         <v>614</v>
       </c>
@@ -12036,7 +12081,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="738" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C738" s="2" t="s">
         <v>615</v>
       </c>
@@ -12044,7 +12089,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="739" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C739" s="2" t="s">
         <v>616</v>
       </c>
@@ -12052,7 +12097,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="740" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C740" s="2" t="s">
         <v>617</v>
       </c>
@@ -12060,7 +12105,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="741" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C741" s="2" t="s">
         <v>618</v>
       </c>
@@ -12068,7 +12113,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="742" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C742" s="2" t="s">
         <v>619</v>
       </c>
@@ -12076,7 +12121,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="743" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C743" s="2" t="s">
         <v>620</v>
       </c>
@@ -12084,7 +12129,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="744" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C744" s="2" t="s">
         <v>621</v>
       </c>
@@ -12092,7 +12137,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="745" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C745" s="2" t="s">
         <v>622</v>
       </c>
@@ -12100,7 +12145,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="746" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C746" s="2" t="s">
         <v>623</v>
       </c>
@@ -12108,7 +12153,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="747" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C747" s="2" t="s">
         <v>624</v>
       </c>
@@ -12116,7 +12161,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="748" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C748" s="2" t="s">
         <v>625</v>
       </c>
@@ -12124,7 +12169,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="749" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C749" s="2" t="s">
         <v>626</v>
       </c>
@@ -12132,7 +12177,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="750" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C750" s="2" t="s">
         <v>627</v>
       </c>
@@ -12140,7 +12185,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="751" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C751" s="2" t="s">
         <v>628</v>
       </c>
@@ -12148,7 +12193,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="752" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C752" s="2" t="s">
         <v>629</v>
       </c>
@@ -12156,7 +12201,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C753" s="2" t="s">
         <v>630</v>
       </c>
@@ -12164,7 +12209,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C754" s="2" t="s">
         <v>631</v>
       </c>
@@ -12172,7 +12217,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C755" s="2" t="s">
         <v>632</v>
       </c>
@@ -12180,7 +12225,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C756" s="2" t="s">
         <v>633</v>
       </c>
@@ -12188,7 +12233,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C757" s="2" t="s">
         <v>634</v>
       </c>
@@ -12196,7 +12241,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A758" s="1" t="s">
         <v>1604</v>
       </c>
@@ -12213,7 +12258,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B759" s="2" t="s">
         <v>708</v>
       </c>
@@ -12224,7 +12269,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C760" s="2" t="s">
         <v>637</v>
       </c>
@@ -12232,7 +12277,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C761" s="2" t="s">
         <v>638</v>
       </c>
@@ -12240,7 +12285,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C762" s="2" t="s">
         <v>639</v>
       </c>
@@ -12248,7 +12293,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C763" s="2" t="s">
         <v>640</v>
       </c>
@@ -12256,7 +12301,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C764" s="2" t="s">
         <v>641</v>
       </c>
@@ -12264,7 +12309,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C765" s="2" t="s">
         <v>642</v>
       </c>
@@ -12272,7 +12317,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C766" s="2" t="s">
         <v>643</v>
       </c>
@@ -12280,7 +12325,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C767" s="2" t="s">
         <v>644</v>
       </c>
@@ -12288,7 +12333,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C768" s="2" t="s">
         <v>645</v>
       </c>
@@ -12296,7 +12341,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="769" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C769" s="2" t="s">
         <v>646</v>
       </c>
@@ -12304,7 +12349,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="770" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C770" s="2" t="s">
         <v>647</v>
       </c>
@@ -12312,7 +12357,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="771" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C771" s="2" t="s">
         <v>648</v>
       </c>
@@ -12320,7 +12365,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="772" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C772" s="2" t="s">
         <v>649</v>
       </c>
@@ -12328,7 +12373,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="773" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C773" s="2" t="s">
         <v>650</v>
       </c>
@@ -12336,7 +12381,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="774" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C774" s="2" t="s">
         <v>651</v>
       </c>
@@ -12344,7 +12389,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="775" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C775" s="2" t="s">
         <v>652</v>
       </c>
@@ -12352,7 +12397,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="776" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C776" s="2" t="s">
         <v>869</v>
       </c>
@@ -12363,7 +12408,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="777" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C777" s="2" t="s">
         <v>870</v>
       </c>
@@ -12375,7 +12420,7 @@
       </c>
       <c r="F777"/>
     </row>
-    <row r="778" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C778" s="2" t="s">
         <v>871</v>
       </c>
@@ -12387,7 +12432,7 @@
       </c>
       <c r="F778"/>
     </row>
-    <row r="779" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C779" s="2" t="s">
         <v>872</v>
       </c>
@@ -12399,7 +12444,7 @@
       </c>
       <c r="F779"/>
     </row>
-    <row r="780" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C780" s="2" t="s">
         <v>873</v>
       </c>
@@ -12411,7 +12456,7 @@
       </c>
       <c r="F780"/>
     </row>
-    <row r="781" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C781" s="2" t="s">
         <v>874</v>
       </c>
@@ -12423,7 +12468,7 @@
       </c>
       <c r="F781"/>
     </row>
-    <row r="782" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C782" s="2" t="s">
         <v>875</v>
       </c>
@@ -12435,7 +12480,7 @@
       </c>
       <c r="F782"/>
     </row>
-    <row r="783" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C783" s="2" t="s">
         <v>876</v>
       </c>
@@ -12447,7 +12492,7 @@
       </c>
       <c r="F783"/>
     </row>
-    <row r="784" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C784" s="2" t="s">
         <v>877</v>
       </c>
@@ -12459,7 +12504,7 @@
       </c>
       <c r="F784"/>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A785" s="1" t="s">
         <v>1605</v>
       </c>
@@ -12477,7 +12522,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B786" s="2" t="s">
         <v>709</v>
       </c>
@@ -12490,7 +12535,7 @@
       <c r="E786"/>
       <c r="F786"/>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C787" s="2" t="s">
         <v>656</v>
       </c>
@@ -12500,7 +12545,7 @@
       <c r="E787"/>
       <c r="F787"/>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C788" s="2" t="s">
         <v>657</v>
       </c>
@@ -12510,7 +12555,7 @@
       <c r="E788"/>
       <c r="F788"/>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C789" s="2" t="s">
         <v>658</v>
       </c>
@@ -12520,7 +12565,7 @@
       <c r="E789"/>
       <c r="F789"/>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C790" s="2" t="s">
         <v>878</v>
       </c>
@@ -12532,7 +12577,7 @@
       </c>
       <c r="F790"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C791" s="2" t="s">
         <v>879</v>
       </c>
@@ -12540,7 +12585,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A792" s="1" t="s">
         <v>1605</v>
       </c>
@@ -12554,7 +12599,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B793" s="2" t="s">
         <v>710</v>
       </c>
@@ -12565,7 +12610,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C794" s="2" t="s">
         <v>663</v>
       </c>
@@ -12573,7 +12618,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C795" s="2" t="s">
         <v>664</v>
       </c>
@@ -12581,7 +12626,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A796" s="1" t="s">
         <v>1605</v>
       </c>
@@ -12595,7 +12640,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B797" s="2" t="s">
         <v>711</v>
       </c>
@@ -12606,7 +12651,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C798" s="2" t="s">
         <v>668</v>
       </c>
@@ -12614,7 +12659,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C799" s="2" t="s">
         <v>669</v>
       </c>
@@ -12622,7 +12667,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C800" s="2" t="s">
         <v>670</v>
       </c>
@@ -12642,13 +12687,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>1590</v>
       </c>
@@ -12656,27 +12701,27 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>1607</v>
       </c>
@@ -12684,42 +12729,42 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>1593</v>
       </c>
@@ -12727,22 +12772,22 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>1594</v>
       </c>
@@ -12750,42 +12795,42 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>1595</v>
       </c>
@@ -12793,22 +12838,22 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>1596</v>
       </c>
@@ -12816,52 +12861,52 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>1597</v>
       </c>
@@ -12869,17 +12914,17 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>1598</v>
       </c>
@@ -12887,17 +12932,17 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B45" s="2" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>1599</v>
       </c>
@@ -12905,22 +12950,22 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B48" s="2" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1600</v>
       </c>
@@ -12928,32 +12973,32 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B52" s="2" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B54" s="2" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B55" s="2" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>1601</v>
       </c>
@@ -12961,27 +13006,27 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B58" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B59" s="2" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B60" s="2" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>1602</v>
       </c>
@@ -12989,27 +13034,27 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B63" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B64" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B65" s="2" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>1603</v>
       </c>
@@ -13017,17 +13062,17 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>1604</v>
       </c>
@@ -13035,17 +13080,17 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>1605</v>
       </c>
@@ -13053,17 +13098,17 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>711</v>
       </c>

--- a/SAPS_2016_Glossary.xlsx
+++ b/SAPS_2016_Glossary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davy Sheehy\Desktop\ABDAFinalAssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76978A1B-E57A-4CBC-BE01-A66FF62E7141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4425802-552F-4CE0-AB77-E795590AD577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5366,8 +5366,8 @@
   <dimension ref="A1:F800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D644" sqref="D644"/>
+      <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D647" sqref="D647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
